--- a/output/date/2021-12-18/2021-12-18_리모컨.xlsx
+++ b/output/date/2021-12-18/2021-12-18_리모컨.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 TV용 &lt;b&gt;리모컨&lt;/b&gt;(AA59-00598A)</t>
+          <t>삼성전자 삼성 TV용 리모컨(AA59-00598A)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LG 정품 스마트 TV 매직 &lt;b&gt;리모컨&lt;/b&gt; OLED 올레드 스마트 겸용 새상품</t>
+          <t>LG 정품 스마트 TV 매직 리모컨 OLED 올레드 스마트 겸용 새상품</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 스마트 &lt;b&gt;리모컨&lt;/b&gt; (BN59-01259A)</t>
+          <t>삼성전자 삼성 스마트 리모컨 (BN59-01259A)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>삼성 TV&lt;b&gt;리모컨&lt;/b&gt;/LG TV &lt;b&gt;리모컨&lt;/b&gt; (파브 엑스캔버스)</t>
+          <t>삼성 TV리모컨/LG TV 리모컨 (파브 엑스캔버스)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TV &lt;b&gt;리모컨&lt;/b&gt; 만능 삼성 엘지 &lt;b&gt;리모콘&lt;/b&gt;</t>
+          <t>TV 리모컨 만능 삼성 엘지 리모콘</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 스마트 &lt;b&gt;리모컨&lt;/b&gt; (BN59-01276A)</t>
+          <t>삼성전자 삼성 스마트 리모컨 (BN59-01276A)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[정품]TM1640A 삼성TV&lt;b&gt;리모컨&lt;/b&gt;/BN59-01259A/LED TV/&lt;b&gt;리모콘&lt;/b&gt;</t>
+          <t>[정품]TM1640A 삼성TV리모컨/BN59-01259A/LED TV/리모콘</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>더함 3 in 1 통합 &lt;b&gt;리모컨&lt;/b&gt;</t>
+          <t>더함 3 in 1 통합 리모컨</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>(5분 설치) 가정용 스마트 통합 만능 &lt;b&gt;리모컨&lt;/b&gt; tv 에어컨 원격제어 음성인식 헤이홈 허브</t>
+          <t>(5분 설치) 가정용 스마트 통합 만능 리모컨 tv 에어컨 원격제어 음성인식 헤이홈 허브</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LG유플러스 셋톱박스 만능&lt;b&gt;리모컨&lt;/b&gt;</t>
+          <t>LG유플러스 셋톱박스 만능리모컨</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KT 올레 BTV 만능 LG 유플러스 삼성 TV &lt;b&gt;리모컨&lt;/b&gt; 스카이라이프 통합 스마트 헬로 비 티비</t>
+          <t>KT 올레 BTV 만능 LG 유플러스 삼성 TV 리모컨 스카이라이프 통합 스마트 헬로 비 티비</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>올레 스카이라이프 &lt;b&gt;리모컨&lt;/b&gt;</t>
+          <t>올레 스카이라이프 리모컨</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SK브로드밴드 BTV 셋탑박스 &lt;b&gt;리모컨&lt;/b&gt;(IPTV 전용 만능&lt;b&gt;리모컨&lt;/b&gt;)</t>
+          <t>SK브로드밴드 BTV 셋탑박스 리모컨(IPTV 전용 만능리모컨)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Btv전용 &lt;b&gt;리모컨&lt;/b&gt;</t>
+          <t>Btv전용 리모컨</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[LG정품] 매직&lt;b&gt;리모컨&lt;/b&gt; 인공지능 음성인식 20년식 MR20GA AKB75855501</t>
+          <t>[LG정품] 매직리모컨 인공지능 음성인식 20년식 MR20GA AKB75855501</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>오성통상 IR-1100 하나로 &lt;b&gt;리모컨&lt;/b&gt;</t>
+          <t>오성통상 IR-1100 하나로 리모컨</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>와사비망고 딴트공 매직 &lt;b&gt;리모컨&lt;/b&gt;</t>
+          <t>와사비망고 딴트공 매직 리모컨</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>KT TV &lt;b&gt;리모컨&lt;/b&gt;</t>
+          <t>KT TV 리모컨</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>헬로TV &lt;b&gt;리모컨&lt;/b&gt;</t>
+          <t>헬로TV 리모컨</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LG전자 LG정품 TV &lt;b&gt;리모컨&lt;/b&gt; (233)</t>
+          <t>LG전자 LG정품 TV 리모컨 (233)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LG 삼성 TV&lt;b&gt;리모컨&lt;/b&gt; 스마트 티비 텔레비젼 엑스캔버스 파브</t>
+          <t>LG 삼성 TV리모컨 스마트 티비 텔레비젼 엑스캔버스 파브</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>중소기업TV /삼성 /LG /만능 /통합 /TV&lt;b&gt;리모컨&lt;/b&gt; CB-2000A</t>
+          <t>중소기업TV /삼성 /LG /만능 /통합 /TV리모컨 CB-2000A</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>넥스디지탈 &lt;b&gt;리모컨&lt;/b&gt;</t>
+          <t>넥스디지탈 리모컨</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SK브로드밴드 셋톱박스 &lt;b&gt;리모컨&lt;/b&gt;</t>
+          <t>SK브로드밴드 셋톱박스 리모컨</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>엘지 TV전용 정품 &lt;b&gt;리모컨&lt;/b&gt; LG &lt;b&gt;리모콘&lt;/b&gt; (일본어마킹)</t>
+          <t>엘지 TV전용 정품 리모컨 LG 리모콘 (일본어마킹)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TI320-DU iptv 셋톱박스 lg u+ TV 유플러스&lt;b&gt;리모콘&lt;/b&gt;</t>
+          <t>TI320-DU iptv 셋톱박스 lg u+ TV 유플러스리모콘</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>벽걸이 부착 통합 &lt;b&gt;리모컨&lt;/b&gt; 거치대 소품 정리함 케이스 보관함 수납함 주머니 꽂이 수납포켓</t>
+          <t>벽걸이 부착 통합 리모컨 거치대 소품 정리함 케이스 보관함 수납함 주머니 꽂이 수납포켓</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>KT올레 셋톱박스 &lt;b&gt;리모컨&lt;/b&gt;</t>
+          <t>KT올레 셋톱박스 리모컨</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 TV용 &lt;b&gt;리모컨&lt;/b&gt;(BN59-01312C)</t>
+          <t>삼성전자 삼성 TV용 리모컨(BN59-01312C)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>LG 정품 올레드 매직 &lt;b&gt;리모컨&lt;/b&gt; 모음</t>
+          <t>LG 정품 올레드 매직 리모컨 모음</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>한국전자 무설정 &lt;b&gt;리모컨&lt;/b&gt; (HK753)</t>
+          <t>한국전자 무설정 리모컨 (HK753)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>정품 씨제이 &lt;b&gt;리모컨&lt;/b&gt;HD 셋톱박스 CJ&lt;b&gt;리모콘&lt;/b&gt; 헬로TV&lt;b&gt;리모콘&lt;/b&gt;</t>
+          <t>정품 씨제이 리모컨HD 셋톱박스 CJ리모콘 헬로TV리모콘</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>실리콘 &lt;b&gt;리모콘&lt;/b&gt; 커버 야광 &lt;b&gt;리모컨&lt;/b&gt;커버 케이스 보호필름</t>
+          <t>실리콘 리모콘 커버 야광 리모컨커버 케이스 보호필름</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>LG전자 매직 &lt;b&gt;리모컨&lt;/b&gt; (AKB75375503)</t>
+          <t>LG전자 매직 리모컨 (AKB75375503)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>스마트&lt;b&gt;리모컨&lt;/b&gt; 무선 만능&lt;b&gt;리모컨&lt;/b&gt; 원격제어 &lt;b&gt;리모컨&lt;/b&gt; 허브 tv 에어컨 통합 헤이홈 iot</t>
+          <t>스마트리모컨 무선 만능리모컨 원격제어 리모컨 허브 tv 에어컨 통합 헤이홈 iot</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>올레KT &lt;b&gt;리모컨&lt;/b&gt; 셋톱박스 기가 지니 GiGA Genie 통합&lt;b&gt;리모컨&lt;/b&gt;</t>
+          <t>올레KT 리모컨 셋톱박스 기가 지니 GiGA Genie 통합리모컨</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>텐플 무선 만능&lt;b&gt;리모컨&lt;/b&gt; 원격제어 &lt;b&gt;리모컨&lt;/b&gt; 허브 스마트&lt;b&gt;리모컨&lt;/b&gt; tv 에어컨 iot 구글홈</t>
+          <t>텐플 무선 만능리모컨 원격제어 리모컨 허브 스마트리모컨 tv 에어컨 iot 구글홈</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>이노스 매직 &lt;b&gt;리모컨&lt;/b&gt; TV 와 셋톱박스를 하나로 넷플릭스 / 유튜브 핫키 탑재</t>
+          <t>이노스 매직 리모컨 TV 와 셋톱박스를 하나로 넷플릭스 / 유튜브 핫키 탑재</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>무설정 엘지TV 만능 &lt;b&gt;리모컨&lt;/b&gt; 삼성 티비 &lt;b&gt;리모콘&lt;/b&gt;</t>
+          <t>무설정 엘지TV 만능 리모컨 삼성 티비 리모콘</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PC용 &lt;b&gt;리모콘&lt;/b&gt; 곰플레이어 USB &lt;b&gt;리모컨&lt;/b&gt; 무선 마우스기능</t>
+          <t>PC용 리모콘 곰플레이어 USB 리모컨 무선 마우스기능</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 TV용 &lt;b&gt;리모컨&lt;/b&gt;(BN59-01175A)</t>
+          <t>삼성전자 삼성 TV용 리모컨(BN59-01175A)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NEC 프로젝터 &lt;b&gt;리모컨&lt;/b&gt;</t>
+          <t>NEC 프로젝터 리모컨</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>대우루컴즈 TV&lt;b&gt;리모컨&lt;/b&gt; LUCOMS TV&lt;b&gt;리모컨&lt;/b&gt;+건전지무료</t>
+          <t>대우루컴즈 TV리모컨 LUCOMS TV리모컨+건전지무료</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>부착형 &lt;b&gt;리모컨&lt;/b&gt;거치대 &lt;b&gt;리모컨&lt;/b&gt;정리함 멀티수납</t>
+          <t>부착형 리모컨거치대 리모컨정리함 멀티수납</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>올레TV 스카이라이프 &lt;b&gt;리모컨&lt;/b&gt;</t>
+          <t>올레TV 스카이라이프 리모컨</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>학습형 만능 &lt;b&gt;리모컨&lt;/b&gt;/ TV/ 셋탑박스/ 냉난방기 호환</t>
+          <t>학습형 만능 리모컨/ TV/ 셋탑박스/ 냉난방기 호환</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TV&lt;b&gt;리모컨&lt;/b&gt; 삼성 엘지 만능&lt;b&gt;리모컨&lt;/b&gt; 통합&lt;b&gt;리모콘&lt;/b&gt; KT 쿡 U플러스 SK BTV 셋톱박스</t>
+          <t>TV리모컨 삼성 엘지 만능리모컨 통합리모콘 KT 쿡 U플러스 SK BTV 셋톱박스</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>KT&lt;b&gt;리모컨&lt;/b&gt; 기가지니&lt;b&gt;리모컨&lt;/b&gt; GIGAGenie&lt;b&gt;리모컨&lt;/b&gt; 중고제품</t>
+          <t>KT리모컨 기가지니리모컨 GIGAGenie리모컨 중고제품</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>KT&lt;b&gt;리모콘&lt;/b&gt; 셋톱박스 / 스카이라이프 &lt;b&gt;리모콘&lt;/b&gt;  중고</t>
+          <t>KT리모콘 셋톱박스 / 스카이라이프 리모콘  중고</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>스마트라TV&lt;b&gt;리모컨&lt;/b&gt; SMATRA TV&lt;b&gt;리모컨&lt;/b&gt;+건전지무료</t>
+          <t>스마트라TV리모컨 SMATRA TV리모컨+건전지무료</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>디엘티 모넥스 중소기업TV &lt;b&gt;리모컨&lt;/b&gt;</t>
+          <t>디엘티 모넥스 중소기업TV 리모컨</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>인켈TV&lt;b&gt;리모컨&lt;/b&gt; INKEL TV&lt;b&gt;리모컨&lt;/b&gt;+건전지무료</t>
+          <t>인켈TV리모컨 INKEL TV리모컨+건전지무료</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 TV,비디오용 &lt;b&gt;리모컨&lt;/b&gt;(BN59-00377B)</t>
+          <t>삼성전자 삼성 TV,비디오용 리모컨(BN59-00377B)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4645,7 +4645,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>KT 쿡 올레 TV용 &lt;b&gt;리모컨&lt;/b&gt;</t>
+          <t>KT 쿡 올레 TV용 리모컨</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>AA59-00598A BN59-01189C 삼성 정품 LCD 3D LED PDP 스마트 TV &lt;b&gt;리모컨&lt;/b&gt; &lt;b&gt;리모콘&lt;/b&gt;</t>
+          <t>AA59-00598A BN59-01189C 삼성 정품 LCD 3D LED PDP 스마트 TV 리모컨 리모콘</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>스카이라이프 정품 &lt;b&gt;리모콘&lt;/b&gt; - 벡셀 건전지 무료</t>
+          <t>스카이라이프 정품 리모콘 - 벡셀 건전지 무료</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>통합 만능 무설정 삼성 LG 엘지 티비 TV KT 올레TV 스카이라이프 셋톱박스 &lt;b&gt;리모컨&lt;/b&gt;</t>
+          <t>통합 만능 무설정 삼성 LG 엘지 티비 TV KT 올레TV 스카이라이프 셋톱박스 리모컨</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>LGTV 통합&lt;b&gt;리모컨&lt;/b&gt; 유플러스 셋톱박스만능&lt;b&gt;리모컨&lt;/b&gt; LG 엘지 LG전자 &lt;b&gt;리모콘&lt;/b&gt; U+</t>
+          <t>LGTV 통합리모컨 유플러스 셋톱박스만능리모컨 LG 엘지 LG전자 리모콘 U+</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>헤이홈 스마트 &lt;b&gt;리모컨&lt;/b&gt; 허브</t>
+          <t>헤이홈 스마트 리모컨 허브</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PIMPIN 무설정 통합 &lt;b&gt;리모콘&lt;/b&gt;  PB-9085</t>
+          <t>PIMPIN 무설정 통합 리모콘  PB-9085</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>하이얼TV&lt;b&gt;리모컨&lt;/b&gt; HAIER TV&lt;b&gt;리모컨&lt;/b&gt;+건전지무료</t>
+          <t>하이얼TV리모컨 HAIER TV리모컨+건전지무료</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 TV용 &lt;b&gt;리모컨&lt;/b&gt;(00008E)</t>
+          <t>삼성전자 삼성 TV용 리모컨(00008E)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>삼성 TV모니터 &lt;b&gt;리모컨&lt;/b&gt;(전기종 호환)</t>
+          <t>삼성 TV모니터 리모컨(전기종 호환)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5559,7 +5559,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>LG 삼성 TV &lt;b&gt;리모컨&lt;/b&gt; &lt;b&gt;리모콘&lt;/b&gt;(건전지무료)</t>
+          <t>LG 삼성 TV 리모컨 리모콘(건전지무료)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5617,7 +5617,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[무배]  IP TV &lt;b&gt;리모컨&lt;/b&gt; 보호 항균 케이스 / LG U+ SK 브로드밴드 SJD233</t>
+          <t>[무배]  IP TV 리모컨 보호 항균 케이스 / LG U+ SK 브로드밴드 SJD233</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5675,7 +5675,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>LGTV 삼성TV 스카이라이프 위성방송 TV셋톱박스 케이티 KT 다와 만능&lt;b&gt;리모컨&lt;/b&gt;</t>
+          <t>LGTV 삼성TV 스카이라이프 위성방송 TV셋톱박스 케이티 KT 다와 만능리모컨</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 TV용 &lt;b&gt;리모컨&lt;/b&gt;(BN59-01302A)</t>
+          <t>삼성전자 삼성 TV용 리모컨(BN59-01302A)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 TV용 &lt;b&gt;리모컨&lt;/b&gt;(AA83-00654A)</t>
+          <t>삼성전자 삼성 TV용 리모컨(AA83-00654A)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>KT GIGA Genie &lt;b&gt;리모컨&lt;/b&gt; 기가지니 &lt;b&gt;리모콘&lt;/b&gt; 중고제품</t>
+          <t>KT GIGA Genie 리모컨 기가지니 리모콘 중고제품</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5989,7 +5989,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>(정품)TM1680A 삼성TV스마트&lt;b&gt;리모컨&lt;/b&gt;/BN59-01243A</t>
+          <t>(정품)TM1680A 삼성TV스마트리모컨/BN59-01243A</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>대우루컴즈 TV&lt;b&gt;리모컨&lt;/b&gt; / LUCOMS TV&lt;b&gt;리모컨&lt;/b&gt;</t>
+          <t>대우루컴즈 TV리모컨 / LUCOMS TV리모컨</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>필립스 TV &lt;b&gt;리모컨&lt;/b&gt;</t>
+          <t>필립스 TV 리모컨</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6179,7 +6179,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 TM1240 TV&lt;b&gt;리모컨&lt;/b&gt; AA59-00739A</t>
+          <t>삼성전자 삼성 TM1240 TV리모컨 AA59-00739A</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>기가지니 셋톱박스 &lt;b&gt;리모컨&lt;/b&gt;</t>
+          <t>기가지니 셋톱박스 리모컨</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>LG전자 TV 정품 &lt;b&gt;리모컨&lt;/b&gt;(AKB74915348)</t>
+          <t>LG전자 TV 정품 리모컨(AKB74915348)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6431,7 +6431,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 TV용 &lt;b&gt;리모컨&lt;/b&gt;(AA59-00577A)</t>
+          <t>삼성전자 삼성 TV용 리모컨(AA59-00577A)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>&lt;b&gt;리모컨&lt;/b&gt; 정리함 삼성 lg 유플러스 sk btv 브로드밴드 kt 기가지니 &lt;b&gt;리모콘&lt;/b&gt; 찾기</t>
+          <t>리모컨 정리함 삼성 lg 유플러스 sk btv 브로드밴드 kt 기가지니 리모콘 찾기</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>[당일배송]&lt;b&gt;리모컨&lt;/b&gt; 커버/&lt;b&gt;리모콘&lt;/b&gt; 실리콘 커버/ 파손방지 &lt;b&gt;리모컨&lt;/b&gt;커버/세척가능</t>
+          <t>[당일배송]리모컨 커버/리모콘 실리콘 커버/ 파손방지 리모컨커버/세척가능</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>스카이 라이프 정품 &lt;b&gt;리모콘&lt;/b&gt;                 -  오리지날 정품 쌍방향 &lt;b&gt;리모콘&lt;/b&gt;-</t>
+          <t>스카이 라이프 정품 리모콘                 -  오리지날 정품 쌍방향 리모콘-</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
